--- a/grupos/3ARHV - Estadisticos 20211.xlsx
+++ b/grupos/3ARHV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="150">
   <si>
     <t>Materia</t>
   </si>
@@ -185,19 +185,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Molina Quezada Raúl</t>
+  </si>
+  <si>
+    <t>Hernández Mendoza Delfina</t>
+  </si>
+  <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>Muñoz Rivadeneyra Salvador</t>
+  </si>
+  <si>
     <t>González Nuñez Veronica</t>
-  </si>
-  <si>
-    <t>Hernández Mendoza Delfina</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>Molina Quezada Raúl</t>
-  </si>
-  <si>
-    <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
     <t>Mendoza Velazquez Laura Elena</t>
@@ -956,22 +956,22 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>6</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1010,22 +1010,22 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V4">
         <v>6</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X4">
         <v>6</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1033,22 +1033,22 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>8</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1087,22 +1087,22 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V5">
         <v>8</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X5">
         <v>7</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1110,22 +1110,22 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>10</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1164,22 +1164,22 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V6">
         <v>10</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X6">
         <v>10</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1187,22 +1187,22 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D7">
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1241,22 +1241,22 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V7">
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X7">
         <v>7</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1267,19 +1267,19 @@
         <v>-1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>9</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1321,19 +1321,19 @@
         <v>-1</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V8">
         <v>9</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X8">
         <v>9</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1350,7 +1350,7 @@
         <v>-1</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1404,7 +1404,7 @@
         <v>-1</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X9">
         <v>5</v>
@@ -1427,7 +1427,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F10">
         <v>5</v>
@@ -1481,7 +1481,7 @@
         <v>-1</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X10">
         <v>5</v>
@@ -1495,7 +1495,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>-1</v>
@@ -1504,13 +1504,13 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>7</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1549,7 +1549,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U11">
         <v>-1</v>
@@ -1558,13 +1558,13 @@
         <v>7</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X11">
         <v>7</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1572,22 +1572,22 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>7</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>7</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1626,22 +1626,22 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V12">
         <v>7</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X12">
         <v>7</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1649,22 +1649,22 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>9</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>9</v>
       </c>
       <c r="G13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H13">
         <v>-1</v>
@@ -1703,22 +1703,22 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V13">
         <v>9</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X13">
         <v>9</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1735,7 +1735,7 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1789,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X14">
         <v>5</v>
@@ -1803,22 +1803,22 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>8</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1857,22 +1857,22 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V15">
         <v>9</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X15">
         <v>8</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -1880,22 +1880,22 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>-1</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>9</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1934,22 +1934,22 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V16">
         <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X16">
         <v>9</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1957,7 +1957,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>-1</v>
@@ -1966,13 +1966,13 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>7</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -2011,7 +2011,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U17">
         <v>-1</v>
@@ -2020,13 +2020,13 @@
         <v>10</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X17">
         <v>7</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2034,22 +2034,22 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>9</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2088,22 +2088,22 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V18">
         <v>9</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X18">
         <v>9</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2114,19 +2114,19 @@
         <v>-1</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>7</v>
       </c>
       <c r="G19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>-1</v>
@@ -2168,19 +2168,19 @@
         <v>-1</v>
       </c>
       <c r="U19">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V19">
         <v>9</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X19">
         <v>7</v>
       </c>
       <c r="Y19">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -2188,22 +2188,22 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>9</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2242,22 +2242,22 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V20">
         <v>8</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X20">
         <v>9</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2265,7 +2265,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -2274,7 +2274,7 @@
         <v>9</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>6</v>
@@ -2319,7 +2319,7 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U21">
         <v>-1</v>
@@ -2328,7 +2328,7 @@
         <v>9</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X21">
         <v>6</v>
@@ -2351,7 +2351,7 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>5</v>
@@ -2405,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X22">
         <v>5</v>
@@ -2422,19 +2422,19 @@
         <v>-1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>9</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2476,19 +2476,19 @@
         <v>-1</v>
       </c>
       <c r="U23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V23">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X23">
         <v>9</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2496,22 +2496,22 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <v>9</v>
       </c>
       <c r="E24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>8</v>
       </c>
       <c r="G24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>-1</v>
@@ -2550,22 +2550,22 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V24">
         <v>9</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X24">
         <v>8</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2573,22 +2573,22 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>9</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2627,22 +2627,22 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V25">
         <v>9</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X25">
         <v>9</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -2650,22 +2650,22 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>6</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>6</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2704,22 +2704,22 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V26">
         <v>6</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X26">
         <v>6</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2727,22 +2727,22 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D27">
         <v>8</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>9</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2781,22 +2781,22 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V27">
         <v>8</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X27">
         <v>9</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2807,13 +2807,13 @@
         <v>-1</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>-1</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>6</v>
@@ -2861,13 +2861,13 @@
         <v>-1</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V28">
         <v>-1</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X28">
         <v>6</v>
@@ -2881,22 +2881,22 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D29">
         <v>9</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>6</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2935,22 +2935,22 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V29">
         <v>9</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X29">
         <v>6</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2958,22 +2958,22 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>10</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>10</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -3012,22 +3012,22 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V30">
         <v>10</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X30">
         <v>10</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -3035,22 +3035,22 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>9</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -3089,22 +3089,22 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V31">
         <v>9</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X31">
         <v>9</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3112,16 +3112,16 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>-1</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F32">
         <v>5</v>
@@ -3166,16 +3166,16 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V32">
         <v>-1</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X32">
         <v>5</v>
@@ -3189,22 +3189,22 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>9</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>7</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -3243,22 +3243,22 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V33">
         <v>9</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X33">
         <v>7</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3275,7 +3275,7 @@
         <v>-1</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="F34">
         <v>5</v>
@@ -3329,7 +3329,7 @@
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="X34">
         <v>5</v>
@@ -3343,22 +3343,22 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D35">
         <v>9</v>
       </c>
       <c r="E35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <v>10</v>
       </c>
       <c r="G35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H35">
         <v>-1</v>
@@ -3397,22 +3397,22 @@
         <v>-1</v>
       </c>
       <c r="T35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U35">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V35">
         <v>9</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X35">
         <v>10</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -3429,7 +3429,7 @@
         <v>9</v>
       </c>
       <c r="E36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F36">
         <v>6</v>
@@ -3474,7 +3474,7 @@
         <v>-1</v>
       </c>
       <c r="T36">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U36">
         <v>-1</v>
@@ -3483,7 +3483,7 @@
         <v>9</v>
       </c>
       <c r="W36">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X36">
         <v>6</v>
@@ -3497,22 +3497,22 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
       <c r="E37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <v>10</v>
       </c>
       <c r="G37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="H37">
         <v>-1</v>
@@ -3551,22 +3551,22 @@
         <v>-1</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U37">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="V37">
         <v>9</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X37">
         <v>10</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -3634,22 +3634,25 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
       <c r="I2">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3663,22 +3666,25 @@
         <v>35</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>8.5</v>
+      </c>
       <c r="I3">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -3692,27 +3698,30 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>7.8</v>
+      </c>
       <c r="I4">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -3721,27 +3730,30 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>8.6</v>
+      </c>
       <c r="I5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -3750,25 +3762,25 @@
         <v>35</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>82.86</v>
+      </c>
+      <c r="G6">
+        <v>17.14</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>77.14</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>8.6</v>
-      </c>
-      <c r="I6">
-        <v>8</v>
-      </c>
-      <c r="J6">
-        <v>22.86</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3857,7 +3869,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3877,7 +3889,7 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3937,7 +3949,7 @@
         <v>6</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3977,7 +3989,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3997,7 +4009,7 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4057,7 +4069,7 @@
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4097,7 +4109,7 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4117,7 +4129,7 @@
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4177,7 +4189,7 @@
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4217,7 +4229,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4237,7 +4249,7 @@
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4297,7 +4309,7 @@
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4337,7 +4349,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4357,7 +4369,7 @@
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4417,7 +4429,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4457,7 +4469,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4477,7 +4489,7 @@
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4537,7 +4549,7 @@
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4577,7 +4589,7 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4597,7 +4609,7 @@
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4657,7 +4669,7 @@
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4697,7 +4709,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4717,7 +4729,7 @@
         <v>8</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4777,7 +4789,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4817,7 +4829,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4837,7 +4849,7 @@
         <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4897,7 +4909,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4937,7 +4949,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4957,7 +4969,7 @@
         <v>8</v>
       </c>
       <c r="F57" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5017,7 +5029,7 @@
         <v>6</v>
       </c>
       <c r="F60" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5057,7 +5069,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5077,7 +5089,7 @@
         <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5137,7 +5149,7 @@
         <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5177,7 +5189,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5197,7 +5209,7 @@
         <v>8</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5257,7 +5269,7 @@
         <v>6</v>
       </c>
       <c r="F72" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5297,7 +5309,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5317,7 +5329,7 @@
         <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5377,7 +5389,7 @@
         <v>6</v>
       </c>
       <c r="F78" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5417,7 +5429,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5437,7 +5449,7 @@
         <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5497,7 +5509,7 @@
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5537,7 +5549,7 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5557,7 +5569,7 @@
         <v>8</v>
       </c>
       <c r="F87" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5617,7 +5629,7 @@
         <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5657,7 +5669,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5677,7 +5689,7 @@
         <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5737,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5777,7 +5789,7 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5797,7 +5809,7 @@
         <v>8</v>
       </c>
       <c r="F99" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5857,7 +5869,7 @@
         <v>6</v>
       </c>
       <c r="F102" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5897,7 +5909,7 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -5917,7 +5929,7 @@
         <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5977,7 +5989,7 @@
         <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6017,7 +6029,7 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -6037,7 +6049,7 @@
         <v>8</v>
       </c>
       <c r="F111" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -6097,7 +6109,7 @@
         <v>6</v>
       </c>
       <c r="F114" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -6137,7 +6149,7 @@
         <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -6157,7 +6169,7 @@
         <v>8</v>
       </c>
       <c r="F117" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -6217,7 +6229,7 @@
         <v>6</v>
       </c>
       <c r="F120" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -6257,7 +6269,7 @@
         <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -6277,7 +6289,7 @@
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6337,7 +6349,7 @@
         <v>6</v>
       </c>
       <c r="F126" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6377,7 +6389,7 @@
         <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -6397,7 +6409,7 @@
         <v>8</v>
       </c>
       <c r="F129" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6457,7 +6469,7 @@
         <v>6</v>
       </c>
       <c r="F132" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6497,7 +6509,7 @@
         <v>7</v>
       </c>
       <c r="F134" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -6517,7 +6529,7 @@
         <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6577,7 +6589,7 @@
         <v>6</v>
       </c>
       <c r="F138" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6617,7 +6629,7 @@
         <v>7</v>
       </c>
       <c r="F140" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -6637,7 +6649,7 @@
         <v>8</v>
       </c>
       <c r="F141" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6697,7 +6709,7 @@
         <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6737,7 +6749,7 @@
         <v>7</v>
       </c>
       <c r="F146" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -6757,7 +6769,7 @@
         <v>8</v>
       </c>
       <c r="F147" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6817,7 +6829,7 @@
         <v>6</v>
       </c>
       <c r="F150" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6857,7 +6869,7 @@
         <v>7</v>
       </c>
       <c r="F152" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -6877,7 +6889,7 @@
         <v>8</v>
       </c>
       <c r="F153" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6937,7 +6949,7 @@
         <v>6</v>
       </c>
       <c r="F156" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6977,7 +6989,7 @@
         <v>7</v>
       </c>
       <c r="F158" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -6997,7 +7009,7 @@
         <v>8</v>
       </c>
       <c r="F159" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -7057,7 +7069,7 @@
         <v>6</v>
       </c>
       <c r="F162" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -7097,7 +7109,7 @@
         <v>7</v>
       </c>
       <c r="F164" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -7117,7 +7129,7 @@
         <v>8</v>
       </c>
       <c r="F165" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -7177,7 +7189,7 @@
         <v>6</v>
       </c>
       <c r="F168" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -7217,7 +7229,7 @@
         <v>7</v>
       </c>
       <c r="F170" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -7237,7 +7249,7 @@
         <v>8</v>
       </c>
       <c r="F171" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -7297,7 +7309,7 @@
         <v>6</v>
       </c>
       <c r="F174" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7337,7 +7349,7 @@
         <v>7</v>
       </c>
       <c r="F176" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -7357,7 +7369,7 @@
         <v>8</v>
       </c>
       <c r="F177" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7417,7 +7429,7 @@
         <v>6</v>
       </c>
       <c r="F180" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7457,7 +7469,7 @@
         <v>7</v>
       </c>
       <c r="F182" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -7477,7 +7489,7 @@
         <v>8</v>
       </c>
       <c r="F183" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7537,7 +7549,7 @@
         <v>6</v>
       </c>
       <c r="F186" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7577,7 +7589,7 @@
         <v>7</v>
       </c>
       <c r="F188" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -7597,7 +7609,7 @@
         <v>8</v>
       </c>
       <c r="F189" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7657,7 +7669,7 @@
         <v>6</v>
       </c>
       <c r="F192" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7697,7 +7709,7 @@
         <v>7</v>
       </c>
       <c r="F194" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -7717,7 +7729,7 @@
         <v>8</v>
       </c>
       <c r="F195" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -7777,7 +7789,7 @@
         <v>6</v>
       </c>
       <c r="F198" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -7814,7 +7826,7 @@
         <v>7</v>
       </c>
       <c r="F200" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -7831,7 +7843,7 @@
         <v>8</v>
       </c>
       <c r="F201" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -7882,7 +7894,7 @@
         <v>6</v>
       </c>
       <c r="F204" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -7919,7 +7931,7 @@
         <v>7</v>
       </c>
       <c r="F206" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -7939,7 +7951,7 @@
         <v>8</v>
       </c>
       <c r="F207" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -7999,7 +8011,7 @@
         <v>6</v>
       </c>
       <c r="F210" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -8655,7 +8667,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8688,6 +8700,279 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920136</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920153</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/3ARHV - Estadisticos 20211.xlsx
+++ b/grupos/3ARHV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="150">
   <si>
     <t>Materia</t>
   </si>
@@ -194,15 +194,15 @@
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
+    <t>Mendoza Velazquez Laura Elena</t>
+  </si>
+  <si>
     <t>Muñoz Rivadeneyra Salvador</t>
   </si>
   <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
-    <t>Mendoza Velazquez Laura Elena</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -215,6 +215,111 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>MARCIAL</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>DE LA ROSA</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MACHORRO</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>RAMON</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>EMELIN JIROMI</t>
+  </si>
+  <si>
+    <t>ESMERALDA</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>IVAN DE JESUS</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>MEILYN ADABEL</t>
+  </si>
+  <si>
+    <t>CONSTANZA XIMENA</t>
+  </si>
+  <si>
+    <t>KIMBERLY</t>
+  </si>
+  <si>
     <t>CASTELLANOS</t>
   </si>
   <si>
@@ -224,27 +329,9 @@
     <t>CONGUILLO</t>
   </si>
   <si>
-    <t>CORONA</t>
-  </si>
-  <si>
     <t>CUATRA</t>
   </si>
   <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
     <t>LIMON</t>
   </si>
   <si>
@@ -254,27 +341,15 @@
     <t>MARTINEZ</t>
   </si>
   <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>MARCIAL</t>
-  </si>
-  <si>
     <t>MAYAHUA</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>OLTEHUA</t>
   </si>
   <si>
     <t>OLIVARES</t>
   </si>
   <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
     <t>PACHECO</t>
   </si>
   <si>
@@ -284,27 +359,12 @@
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>DE LA ROSA</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
     <t>RUIZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
     <t>TIBURCIO</t>
   </si>
   <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
     <t>VELAZQEZ</t>
   </si>
   <si>
@@ -314,21 +374,12 @@
     <t>ZOPIYACTLE</t>
   </si>
   <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
     <t>SANTIAGO</t>
   </si>
   <si>
     <t>SUAREZ</t>
   </si>
   <si>
-    <t>APARICIO</t>
-  </si>
-  <si>
     <t>BASILIO</t>
   </si>
   <si>
@@ -341,39 +392,21 @@
     <t>CHIPAHUA</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>XOCHIQUISQUI</t>
   </si>
   <si>
     <t>REYNOSO</t>
   </si>
   <si>
-    <t>MACHORRO</t>
-  </si>
-  <si>
     <t>MAZAHUA</t>
   </si>
   <si>
     <t>BARRAGAN</t>
   </si>
   <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>RAMON</t>
-  </si>
-  <si>
     <t>ORTEGA</t>
   </si>
   <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
     <t>MELANIE NAOMI</t>
   </si>
   <si>
@@ -383,36 +416,21 @@
     <t>CONSUELO DALILA</t>
   </si>
   <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
     <t>MARIA</t>
   </si>
   <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>EMELIN JIROMI</t>
-  </si>
-  <si>
     <t>ITZEL</t>
   </si>
   <si>
     <t>AIDA</t>
   </si>
   <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
     <t>ODALYS</t>
   </si>
   <si>
     <t>KIMBERLY ALONDRA</t>
   </si>
   <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
     <t>MARIJOSE</t>
   </si>
   <si>
@@ -425,9 +443,6 @@
     <t>GERMAN ERNESTO</t>
   </si>
   <si>
-    <t>IVAN DE JESUS</t>
-  </si>
-  <si>
     <t>DAMARIS</t>
   </si>
   <si>
@@ -437,9 +452,6 @@
     <t>SANDY SAMARA</t>
   </si>
   <si>
-    <t>KARLA</t>
-  </si>
-  <si>
     <t>TAILY</t>
   </si>
   <si>
@@ -449,22 +461,10 @@
     <t>LUCERO</t>
   </si>
   <si>
-    <t>ALONDRA</t>
-  </si>
-  <si>
     <t>XIMENA MICHELL</t>
   </si>
   <si>
-    <t>MEILYN ADABEL</t>
-  </si>
-  <si>
     <t>DIANA VIANNEY</t>
-  </si>
-  <si>
-    <t>CONSTANZA XIMENA</t>
-  </si>
-  <si>
-    <t>KIMBERLY</t>
   </si>
   <si>
     <t>PAULINA</t>
@@ -1264,7 +1264,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -1318,7 +1318,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>10</v>
@@ -1341,13 +1341,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>-1</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1395,13 +1395,13 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U9">
         <v>-1</v>
       </c>
       <c r="V9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="W9">
         <v>5</v>
@@ -1418,7 +1418,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -1472,7 +1472,7 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U10">
         <v>-1</v>
@@ -1726,7 +1726,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -1780,7 +1780,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>-1</v>
@@ -1886,7 +1886,7 @@
         <v>10</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -1940,7 +1940,7 @@
         <v>10</v>
       </c>
       <c r="V16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="W16">
         <v>8</v>
@@ -2111,7 +2111,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -2165,7 +2165,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U19">
         <v>10</v>
@@ -2342,7 +2342,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U22">
         <v>-1</v>
@@ -2419,7 +2419,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -2473,7 +2473,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U23">
         <v>10</v>
@@ -2804,7 +2804,7 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C28">
         <v>10</v>
@@ -2858,7 +2858,7 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U28">
         <v>10</v>
@@ -3266,7 +3266,7 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -3320,7 +3320,7 @@
         <v>-1</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U34">
         <v>-1</v>
@@ -3698,30 +3698,30 @@
         <v>35</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>7.2</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>74.29000000000001</v>
-      </c>
-      <c r="G4">
+      <c r="J4">
         <v>0</v>
-      </c>
-      <c r="H4">
-        <v>7.8</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4">
-        <v>25.71</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -3730,30 +3730,30 @@
         <v>35</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>82.86</v>
+      </c>
+      <c r="G5">
+        <v>17.14</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>80</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="H5">
-        <v>8.6</v>
-      </c>
-      <c r="I5">
-        <v>7</v>
-      </c>
-      <c r="J5">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -3774,7 +3774,7 @@
         <v>17.14</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -3794,25 +3794,25 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>82.86</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G7">
-        <v>17.14</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>14.29</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3854,56 +3854,56 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920115</v>
+        <v>20330051920119</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>20330051920115</v>
+        <v>20330051920122</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920115</v>
+        <v>20330051920122</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -3914,36 +3914,36 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920115</v>
+        <v>20330051920122</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920115</v>
+        <v>20330051920123</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -3954,76 +3954,76 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920115</v>
+        <v>20330051920126</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920116</v>
+        <v>20330051920126</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920116</v>
+        <v>20330051920129</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920116</v>
+        <v>20330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -4034,116 +4034,116 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920116</v>
+        <v>20330051920135</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920116</v>
+        <v>20330051920136</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920116</v>
+        <v>20330051920136</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920118</v>
+        <v>20330051920141</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920118</v>
+        <v>20330051920141</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920118</v>
+        <v>20330051920144</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -4154,156 +4154,156 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920118</v>
+        <v>20330051920144</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920118</v>
+        <v>20330051920387</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920118</v>
+        <v>20330051920387</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920119</v>
+        <v>20330051920148</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920119</v>
+        <v>20330051920148</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920119</v>
+        <v>20330051920148</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920119</v>
+        <v>20330051920151</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920119</v>
+        <v>20330051920151</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
@@ -4314,3724 +4314,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920119</v>
+        <v>20330051920153</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>20330051920121</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" t="s">
-        <v>7</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>20330051920121</v>
-      </c>
-      <c r="B27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>20330051920121</v>
-      </c>
-      <c r="B28" t="s">
-        <v>69</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>20330051920121</v>
-      </c>
-      <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>20330051920121</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>20330051920121</v>
-      </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
-      </c>
-      <c r="D31" t="s">
-        <v>122</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>20330051920122</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>20330051920122</v>
-      </c>
-      <c r="B33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>20330051920122</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" t="s">
-        <v>98</v>
-      </c>
-      <c r="D34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>20330051920122</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" t="s">
-        <v>123</v>
-      </c>
-      <c r="E35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36">
-        <v>20330051920122</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" t="s">
-        <v>123</v>
-      </c>
-      <c r="E36" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>20330051920122</v>
-      </c>
-      <c r="B37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" t="s">
-        <v>123</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>20330051920123</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>20330051920123</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>20330051920123</v>
-      </c>
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
-      <c r="D40" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41">
-        <v>20330051920123</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" t="s">
-        <v>124</v>
-      </c>
-      <c r="E41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42">
-        <v>20330051920123</v>
-      </c>
-      <c r="B42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C42" t="s">
-        <v>99</v>
-      </c>
-      <c r="D42" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" t="s">
-        <v>6</v>
-      </c>
-      <c r="F42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>20330051920123</v>
-      </c>
-      <c r="B43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44">
-        <v>20330051920124</v>
-      </c>
-      <c r="B44" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" t="s">
-        <v>125</v>
-      </c>
-      <c r="E44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45">
-        <v>20330051920124</v>
-      </c>
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>20330051920124</v>
-      </c>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47">
-        <v>20330051920124</v>
-      </c>
-      <c r="B47" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48">
-        <v>20330051920124</v>
-      </c>
-      <c r="B48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49">
-        <v>20330051920124</v>
-      </c>
-      <c r="B49" t="s">
-        <v>71</v>
-      </c>
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50">
-        <v>20330051920125</v>
-      </c>
-      <c r="B50" t="s">
-        <v>72</v>
-      </c>
-      <c r="C50" t="s">
-        <v>73</v>
-      </c>
-      <c r="D50" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51">
-        <v>20330051920125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52">
-        <v>20330051920125</v>
-      </c>
-      <c r="B52" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53">
-        <v>20330051920125</v>
-      </c>
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54">
-        <v>20330051920125</v>
-      </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920125</v>
-      </c>
-      <c r="B55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920126</v>
-      </c>
-      <c r="B56" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" t="s">
-        <v>127</v>
-      </c>
-      <c r="E56" t="s">
-        <v>7</v>
-      </c>
-      <c r="F56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920126</v>
-      </c>
-      <c r="B57" t="s">
-        <v>73</v>
-      </c>
-      <c r="C57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920126</v>
-      </c>
-      <c r="B58" t="s">
-        <v>73</v>
-      </c>
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920126</v>
-      </c>
-      <c r="B59" t="s">
-        <v>73</v>
-      </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920126</v>
-      </c>
-      <c r="B60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" t="s">
-        <v>127</v>
-      </c>
-      <c r="E60" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920126</v>
-      </c>
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" t="s">
-        <v>127</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920127</v>
-      </c>
-      <c r="B62" t="s">
-        <v>73</v>
-      </c>
-      <c r="C62" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" t="s">
-        <v>128</v>
-      </c>
-      <c r="E62" t="s">
-        <v>7</v>
-      </c>
-      <c r="F62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" t="s">
-        <v>128</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920127</v>
-      </c>
-      <c r="B64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" t="s">
-        <v>128</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920127</v>
-      </c>
-      <c r="B66" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" t="s">
-        <v>73</v>
-      </c>
-      <c r="D66" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920127</v>
-      </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" t="s">
-        <v>128</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920128</v>
-      </c>
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" t="s">
-        <v>129</v>
-      </c>
-      <c r="E68" t="s">
-        <v>7</v>
-      </c>
-      <c r="F68" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920128</v>
-      </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920128</v>
-      </c>
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" t="s">
-        <v>129</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920128</v>
-      </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" t="s">
-        <v>129</v>
-      </c>
-      <c r="E71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920128</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" t="s">
-        <v>129</v>
-      </c>
-      <c r="E72" t="s">
-        <v>6</v>
-      </c>
-      <c r="F72" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920128</v>
-      </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" t="s">
-        <v>129</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920129</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" t="s">
-        <v>130</v>
-      </c>
-      <c r="E74" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920129</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" t="s">
-        <v>130</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920129</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" t="s">
-        <v>130</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920129</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" t="s">
-        <v>130</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920129</v>
-      </c>
-      <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" t="s">
-        <v>102</v>
-      </c>
-      <c r="D78" t="s">
-        <v>130</v>
-      </c>
-      <c r="E78" t="s">
-        <v>6</v>
-      </c>
-      <c r="F78" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920129</v>
-      </c>
-      <c r="B79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" t="s">
-        <v>130</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920131</v>
-      </c>
-      <c r="B80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" t="s">
-        <v>103</v>
-      </c>
-      <c r="D80" t="s">
-        <v>131</v>
-      </c>
-      <c r="E80" t="s">
-        <v>7</v>
-      </c>
-      <c r="F80" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920131</v>
-      </c>
-      <c r="B81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" t="s">
-        <v>103</v>
-      </c>
-      <c r="D81" t="s">
-        <v>131</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-      <c r="F81" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920131</v>
-      </c>
-      <c r="B82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" t="s">
-        <v>131</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920131</v>
-      </c>
-      <c r="B83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" t="s">
-        <v>103</v>
-      </c>
-      <c r="D83" t="s">
-        <v>131</v>
-      </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920131</v>
-      </c>
-      <c r="B84" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" t="s">
-        <v>103</v>
-      </c>
-      <c r="D84" t="s">
-        <v>131</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920131</v>
-      </c>
-      <c r="B85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" t="s">
-        <v>103</v>
-      </c>
-      <c r="D85" t="s">
-        <v>131</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920132</v>
-      </c>
-      <c r="B86" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" t="s">
-        <v>104</v>
-      </c>
-      <c r="D86" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" t="s">
-        <v>7</v>
-      </c>
-      <c r="F86" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920132</v>
-      </c>
-      <c r="B87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" t="s">
-        <v>104</v>
-      </c>
-      <c r="D87" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" t="s">
-        <v>8</v>
-      </c>
-      <c r="F87" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920132</v>
-      </c>
-      <c r="B88" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D88" t="s">
-        <v>132</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920132</v>
-      </c>
-      <c r="B89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" t="s">
-        <v>104</v>
-      </c>
-      <c r="D89" t="s">
-        <v>132</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920132</v>
-      </c>
-      <c r="B90" t="s">
-        <v>76</v>
-      </c>
-      <c r="C90" t="s">
-        <v>104</v>
-      </c>
-      <c r="D90" t="s">
-        <v>132</v>
-      </c>
-      <c r="E90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920132</v>
-      </c>
-      <c r="B91" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" t="s">
-        <v>104</v>
-      </c>
-      <c r="D91" t="s">
-        <v>132</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920133</v>
-      </c>
-      <c r="B92" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" t="s">
-        <v>105</v>
-      </c>
-      <c r="D92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" t="s">
-        <v>7</v>
-      </c>
-      <c r="F92" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920133</v>
-      </c>
-      <c r="B93" t="s">
-        <v>76</v>
-      </c>
-      <c r="C93" t="s">
-        <v>105</v>
-      </c>
-      <c r="D93" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" t="s">
-        <v>8</v>
-      </c>
-      <c r="F93" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920133</v>
-      </c>
-      <c r="B94" t="s">
-        <v>76</v>
-      </c>
-      <c r="C94" t="s">
-        <v>105</v>
-      </c>
-      <c r="D94" t="s">
-        <v>133</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920133</v>
-      </c>
-      <c r="B95" t="s">
-        <v>76</v>
-      </c>
-      <c r="C95" t="s">
-        <v>105</v>
-      </c>
-      <c r="D95" t="s">
-        <v>133</v>
-      </c>
-      <c r="E95" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920133</v>
-      </c>
-      <c r="B96" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" t="s">
-        <v>105</v>
-      </c>
-      <c r="D96" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920133</v>
-      </c>
-      <c r="B97" t="s">
-        <v>76</v>
-      </c>
-      <c r="C97" t="s">
-        <v>105</v>
-      </c>
-      <c r="D97" t="s">
-        <v>133</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920134</v>
-      </c>
-      <c r="B98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" t="s">
-        <v>106</v>
-      </c>
-      <c r="D98" t="s">
-        <v>134</v>
-      </c>
-      <c r="E98" t="s">
-        <v>7</v>
-      </c>
-      <c r="F98" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920134</v>
-      </c>
-      <c r="B99" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99" t="s">
-        <v>134</v>
-      </c>
-      <c r="E99" t="s">
-        <v>8</v>
-      </c>
-      <c r="F99" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920134</v>
-      </c>
-      <c r="B100" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" t="s">
-        <v>106</v>
-      </c>
-      <c r="D100" t="s">
-        <v>134</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920134</v>
-      </c>
-      <c r="B101" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" t="s">
-        <v>106</v>
-      </c>
-      <c r="D101" t="s">
-        <v>134</v>
-      </c>
-      <c r="E101" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920134</v>
-      </c>
-      <c r="B102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" t="s">
-        <v>106</v>
-      </c>
-      <c r="D102" t="s">
-        <v>134</v>
-      </c>
-      <c r="E102" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920134</v>
-      </c>
-      <c r="B103" t="s">
-        <v>77</v>
-      </c>
-      <c r="C103" t="s">
-        <v>106</v>
-      </c>
-      <c r="D103" t="s">
-        <v>134</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920135</v>
-      </c>
-      <c r="B104" t="s">
-        <v>78</v>
-      </c>
-      <c r="C104" t="s">
-        <v>107</v>
-      </c>
-      <c r="D104" t="s">
-        <v>127</v>
-      </c>
-      <c r="E104" t="s">
-        <v>7</v>
-      </c>
-      <c r="F104" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920135</v>
-      </c>
-      <c r="B105" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105" t="s">
-        <v>107</v>
-      </c>
-      <c r="D105" t="s">
-        <v>127</v>
-      </c>
-      <c r="E105" t="s">
-        <v>8</v>
-      </c>
-      <c r="F105" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920135</v>
-      </c>
-      <c r="B106" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" t="s">
-        <v>107</v>
-      </c>
-      <c r="D106" t="s">
-        <v>127</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920135</v>
-      </c>
-      <c r="B107" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" t="s">
-        <v>107</v>
-      </c>
-      <c r="D107" t="s">
-        <v>127</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920135</v>
-      </c>
-      <c r="B108" t="s">
-        <v>78</v>
-      </c>
-      <c r="C108" t="s">
-        <v>107</v>
-      </c>
-      <c r="D108" t="s">
-        <v>127</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920135</v>
-      </c>
-      <c r="B109" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" t="s">
-        <v>107</v>
-      </c>
-      <c r="D109" t="s">
-        <v>127</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920136</v>
-      </c>
-      <c r="B110" t="s">
-        <v>79</v>
-      </c>
-      <c r="C110" t="s">
-        <v>81</v>
-      </c>
-      <c r="D110" t="s">
-        <v>135</v>
-      </c>
-      <c r="E110" t="s">
-        <v>7</v>
-      </c>
-      <c r="F110" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920136</v>
-      </c>
-      <c r="B111" t="s">
-        <v>79</v>
-      </c>
-      <c r="C111" t="s">
-        <v>81</v>
-      </c>
-      <c r="D111" t="s">
-        <v>135</v>
-      </c>
-      <c r="E111" t="s">
-        <v>8</v>
-      </c>
-      <c r="F111" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920136</v>
-      </c>
-      <c r="B112" t="s">
-        <v>79</v>
-      </c>
-      <c r="C112" t="s">
-        <v>81</v>
-      </c>
-      <c r="D112" t="s">
-        <v>135</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920136</v>
-      </c>
-      <c r="B113" t="s">
-        <v>79</v>
-      </c>
-      <c r="C113" t="s">
-        <v>81</v>
-      </c>
-      <c r="D113" t="s">
-        <v>135</v>
-      </c>
-      <c r="E113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920136</v>
-      </c>
-      <c r="B114" t="s">
-        <v>79</v>
-      </c>
-      <c r="C114" t="s">
-        <v>81</v>
-      </c>
-      <c r="D114" t="s">
-        <v>135</v>
-      </c>
-      <c r="E114" t="s">
-        <v>6</v>
-      </c>
-      <c r="F114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920136</v>
-      </c>
-      <c r="B115" t="s">
-        <v>79</v>
-      </c>
-      <c r="C115" t="s">
-        <v>81</v>
-      </c>
-      <c r="D115" t="s">
-        <v>135</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920137</v>
-      </c>
-      <c r="B116" t="s">
-        <v>80</v>
-      </c>
-      <c r="C116" t="s">
-        <v>108</v>
-      </c>
-      <c r="D116" t="s">
-        <v>136</v>
-      </c>
-      <c r="E116" t="s">
-        <v>7</v>
-      </c>
-      <c r="F116" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920137</v>
-      </c>
-      <c r="B117" t="s">
-        <v>80</v>
-      </c>
-      <c r="C117" t="s">
-        <v>108</v>
-      </c>
-      <c r="D117" t="s">
-        <v>136</v>
-      </c>
-      <c r="E117" t="s">
-        <v>8</v>
-      </c>
-      <c r="F117" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920137</v>
-      </c>
-      <c r="B118" t="s">
-        <v>80</v>
-      </c>
-      <c r="C118" t="s">
-        <v>108</v>
-      </c>
-      <c r="D118" t="s">
-        <v>136</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920137</v>
-      </c>
-      <c r="B119" t="s">
-        <v>80</v>
-      </c>
-      <c r="C119" t="s">
-        <v>108</v>
-      </c>
-      <c r="D119" t="s">
-        <v>136</v>
-      </c>
-      <c r="E119" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920137</v>
-      </c>
-      <c r="B120" t="s">
-        <v>80</v>
-      </c>
-      <c r="C120" t="s">
-        <v>108</v>
-      </c>
-      <c r="D120" t="s">
-        <v>136</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920137</v>
-      </c>
-      <c r="B121" t="s">
-        <v>80</v>
-      </c>
-      <c r="C121" t="s">
-        <v>108</v>
-      </c>
-      <c r="D121" t="s">
-        <v>136</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920139</v>
-      </c>
-      <c r="B122" t="s">
-        <v>81</v>
-      </c>
-      <c r="C122" t="s">
-        <v>109</v>
-      </c>
-      <c r="D122" t="s">
-        <v>137</v>
-      </c>
-      <c r="E122" t="s">
-        <v>7</v>
-      </c>
-      <c r="F122" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920139</v>
-      </c>
-      <c r="B123" t="s">
-        <v>81</v>
-      </c>
-      <c r="C123" t="s">
-        <v>109</v>
-      </c>
-      <c r="D123" t="s">
-        <v>137</v>
-      </c>
-      <c r="E123" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920139</v>
-      </c>
-      <c r="B124" t="s">
-        <v>81</v>
-      </c>
-      <c r="C124" t="s">
-        <v>109</v>
-      </c>
-      <c r="D124" t="s">
-        <v>137</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920139</v>
-      </c>
-      <c r="B125" t="s">
-        <v>81</v>
-      </c>
-      <c r="C125" t="s">
-        <v>109</v>
-      </c>
-      <c r="D125" t="s">
-        <v>137</v>
-      </c>
-      <c r="E125" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920139</v>
-      </c>
-      <c r="B126" t="s">
-        <v>81</v>
-      </c>
-      <c r="C126" t="s">
-        <v>109</v>
-      </c>
-      <c r="D126" t="s">
-        <v>137</v>
-      </c>
-      <c r="E126" t="s">
-        <v>6</v>
-      </c>
-      <c r="F126" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920139</v>
-      </c>
-      <c r="B127" t="s">
-        <v>81</v>
-      </c>
-      <c r="C127" t="s">
-        <v>109</v>
-      </c>
-      <c r="D127" t="s">
-        <v>137</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920387</v>
-      </c>
-      <c r="B128" t="s">
-        <v>82</v>
-      </c>
-      <c r="C128" t="s">
-        <v>71</v>
-      </c>
-      <c r="D128" t="s">
-        <v>138</v>
-      </c>
-      <c r="E128" t="s">
-        <v>7</v>
-      </c>
-      <c r="F128" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920387</v>
-      </c>
-      <c r="B129" t="s">
-        <v>82</v>
-      </c>
-      <c r="C129" t="s">
-        <v>71</v>
-      </c>
-      <c r="D129" t="s">
-        <v>138</v>
-      </c>
-      <c r="E129" t="s">
-        <v>8</v>
-      </c>
-      <c r="F129" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920387</v>
-      </c>
-      <c r="B130" t="s">
-        <v>82</v>
-      </c>
-      <c r="C130" t="s">
-        <v>71</v>
-      </c>
-      <c r="D130" t="s">
-        <v>138</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920387</v>
-      </c>
-      <c r="B131" t="s">
-        <v>82</v>
-      </c>
-      <c r="C131" t="s">
-        <v>71</v>
-      </c>
-      <c r="D131" t="s">
-        <v>138</v>
-      </c>
-      <c r="E131" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920387</v>
-      </c>
-      <c r="B132" t="s">
-        <v>82</v>
-      </c>
-      <c r="C132" t="s">
-        <v>71</v>
-      </c>
-      <c r="D132" t="s">
-        <v>138</v>
-      </c>
-      <c r="E132" t="s">
-        <v>6</v>
-      </c>
-      <c r="F132" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920387</v>
-      </c>
-      <c r="B133" t="s">
-        <v>82</v>
-      </c>
-      <c r="C133" t="s">
-        <v>71</v>
-      </c>
-      <c r="D133" t="s">
-        <v>138</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920140</v>
-      </c>
-      <c r="B134" t="s">
-        <v>83</v>
-      </c>
-      <c r="C134" t="s">
-        <v>107</v>
-      </c>
-      <c r="D134" t="s">
-        <v>121</v>
-      </c>
-      <c r="E134" t="s">
-        <v>7</v>
-      </c>
-      <c r="F134" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920140</v>
-      </c>
-      <c r="B135" t="s">
-        <v>83</v>
-      </c>
-      <c r="C135" t="s">
-        <v>107</v>
-      </c>
-      <c r="D135" t="s">
-        <v>121</v>
-      </c>
-      <c r="E135" t="s">
-        <v>8</v>
-      </c>
-      <c r="F135" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920140</v>
-      </c>
-      <c r="B136" t="s">
-        <v>83</v>
-      </c>
-      <c r="C136" t="s">
-        <v>107</v>
-      </c>
-      <c r="D136" t="s">
-        <v>121</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920140</v>
-      </c>
-      <c r="B137" t="s">
-        <v>83</v>
-      </c>
-      <c r="C137" t="s">
-        <v>107</v>
-      </c>
-      <c r="D137" t="s">
-        <v>121</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920140</v>
-      </c>
-      <c r="B138" t="s">
-        <v>83</v>
-      </c>
-      <c r="C138" t="s">
-        <v>107</v>
-      </c>
-      <c r="D138" t="s">
-        <v>121</v>
-      </c>
-      <c r="E138" t="s">
-        <v>6</v>
-      </c>
-      <c r="F138" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920140</v>
-      </c>
-      <c r="B139" t="s">
-        <v>83</v>
-      </c>
-      <c r="C139" t="s">
-        <v>107</v>
-      </c>
-      <c r="D139" t="s">
-        <v>121</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920141</v>
-      </c>
-      <c r="B140" t="s">
-        <v>84</v>
-      </c>
-      <c r="C140" t="s">
-        <v>110</v>
-      </c>
-      <c r="D140" t="s">
-        <v>139</v>
-      </c>
-      <c r="E140" t="s">
-        <v>7</v>
-      </c>
-      <c r="F140" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920141</v>
-      </c>
-      <c r="B141" t="s">
-        <v>84</v>
-      </c>
-      <c r="C141" t="s">
-        <v>110</v>
-      </c>
-      <c r="D141" t="s">
-        <v>139</v>
-      </c>
-      <c r="E141" t="s">
-        <v>8</v>
-      </c>
-      <c r="F141" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>84</v>
-      </c>
-      <c r="C142" t="s">
-        <v>110</v>
-      </c>
-      <c r="D142" t="s">
-        <v>139</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920141</v>
-      </c>
-      <c r="B143" t="s">
-        <v>84</v>
-      </c>
-      <c r="C143" t="s">
-        <v>110</v>
-      </c>
-      <c r="D143" t="s">
-        <v>139</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920141</v>
-      </c>
-      <c r="B144" t="s">
-        <v>84</v>
-      </c>
-      <c r="C144" t="s">
-        <v>110</v>
-      </c>
-      <c r="D144" t="s">
-        <v>139</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920141</v>
-      </c>
-      <c r="B145" t="s">
-        <v>84</v>
-      </c>
-      <c r="C145" t="s">
-        <v>110</v>
-      </c>
-      <c r="D145" t="s">
-        <v>139</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920389</v>
-      </c>
-      <c r="B146" t="s">
-        <v>85</v>
-      </c>
-      <c r="C146" t="s">
-        <v>111</v>
-      </c>
-      <c r="D146" t="s">
-        <v>140</v>
-      </c>
-      <c r="E146" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920389</v>
-      </c>
-      <c r="B147" t="s">
-        <v>85</v>
-      </c>
-      <c r="C147" t="s">
-        <v>111</v>
-      </c>
-      <c r="D147" t="s">
-        <v>140</v>
-      </c>
-      <c r="E147" t="s">
-        <v>8</v>
-      </c>
-      <c r="F147" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920389</v>
-      </c>
-      <c r="B148" t="s">
-        <v>85</v>
-      </c>
-      <c r="C148" t="s">
-        <v>111</v>
-      </c>
-      <c r="D148" t="s">
-        <v>140</v>
-      </c>
-      <c r="E148" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920389</v>
-      </c>
-      <c r="B149" t="s">
-        <v>85</v>
-      </c>
-      <c r="C149" t="s">
-        <v>111</v>
-      </c>
-      <c r="D149" t="s">
-        <v>140</v>
-      </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920389</v>
-      </c>
-      <c r="B150" t="s">
-        <v>85</v>
-      </c>
-      <c r="C150" t="s">
-        <v>111</v>
-      </c>
-      <c r="D150" t="s">
-        <v>140</v>
-      </c>
-      <c r="E150" t="s">
-        <v>6</v>
-      </c>
-      <c r="F150" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920389</v>
-      </c>
-      <c r="B151" t="s">
-        <v>85</v>
-      </c>
-      <c r="C151" t="s">
-        <v>111</v>
-      </c>
-      <c r="D151" t="s">
-        <v>140</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>20330051920142</v>
-      </c>
-      <c r="B152" t="s">
-        <v>86</v>
-      </c>
-      <c r="C152" t="s">
-        <v>105</v>
-      </c>
-      <c r="D152" t="s">
-        <v>141</v>
-      </c>
-      <c r="E152" t="s">
-        <v>7</v>
-      </c>
-      <c r="F152" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>20330051920142</v>
-      </c>
-      <c r="B153" t="s">
-        <v>86</v>
-      </c>
-      <c r="C153" t="s">
-        <v>105</v>
-      </c>
-      <c r="D153" t="s">
-        <v>141</v>
-      </c>
-      <c r="E153" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920142</v>
-      </c>
-      <c r="B154" t="s">
-        <v>86</v>
-      </c>
-      <c r="C154" t="s">
-        <v>105</v>
-      </c>
-      <c r="D154" t="s">
-        <v>141</v>
-      </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920142</v>
-      </c>
-      <c r="B155" t="s">
-        <v>86</v>
-      </c>
-      <c r="C155" t="s">
-        <v>105</v>
-      </c>
-      <c r="D155" t="s">
-        <v>141</v>
-      </c>
-      <c r="E155" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920142</v>
-      </c>
-      <c r="B156" t="s">
-        <v>86</v>
-      </c>
-      <c r="C156" t="s">
-        <v>105</v>
-      </c>
-      <c r="D156" t="s">
-        <v>141</v>
-      </c>
-      <c r="E156" t="s">
-        <v>6</v>
-      </c>
-      <c r="F156" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920142</v>
-      </c>
-      <c r="B157" t="s">
-        <v>86</v>
-      </c>
-      <c r="C157" t="s">
-        <v>105</v>
-      </c>
-      <c r="D157" t="s">
-        <v>141</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920143</v>
-      </c>
-      <c r="B158" t="s">
-        <v>87</v>
-      </c>
-      <c r="C158" t="s">
-        <v>112</v>
-      </c>
-      <c r="D158" t="s">
-        <v>142</v>
-      </c>
-      <c r="E158" t="s">
-        <v>7</v>
-      </c>
-      <c r="F158" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920143</v>
-      </c>
-      <c r="B159" t="s">
-        <v>87</v>
-      </c>
-      <c r="C159" t="s">
-        <v>112</v>
-      </c>
-      <c r="D159" t="s">
-        <v>142</v>
-      </c>
-      <c r="E159" t="s">
-        <v>8</v>
-      </c>
-      <c r="F159" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>20330051920143</v>
-      </c>
-      <c r="B160" t="s">
-        <v>87</v>
-      </c>
-      <c r="C160" t="s">
-        <v>112</v>
-      </c>
-      <c r="D160" t="s">
-        <v>142</v>
-      </c>
-      <c r="E160" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>20330051920143</v>
-      </c>
-      <c r="B161" t="s">
-        <v>87</v>
-      </c>
-      <c r="C161" t="s">
-        <v>112</v>
-      </c>
-      <c r="D161" t="s">
-        <v>142</v>
-      </c>
-      <c r="E161" t="s">
-        <v>5</v>
-      </c>
-      <c r="F161" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>20330051920143</v>
-      </c>
-      <c r="B162" t="s">
-        <v>87</v>
-      </c>
-      <c r="C162" t="s">
-        <v>112</v>
-      </c>
-      <c r="D162" t="s">
-        <v>142</v>
-      </c>
-      <c r="E162" t="s">
-        <v>6</v>
-      </c>
-      <c r="F162" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>20330051920143</v>
-      </c>
-      <c r="B163" t="s">
-        <v>87</v>
-      </c>
-      <c r="C163" t="s">
-        <v>112</v>
-      </c>
-      <c r="D163" t="s">
-        <v>142</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>20330051920144</v>
-      </c>
-      <c r="B164" t="s">
-        <v>88</v>
-      </c>
-      <c r="C164" t="s">
-        <v>113</v>
-      </c>
-      <c r="D164" t="s">
-        <v>143</v>
-      </c>
-      <c r="E164" t="s">
-        <v>7</v>
-      </c>
-      <c r="F164" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>20330051920144</v>
-      </c>
-      <c r="B165" t="s">
-        <v>88</v>
-      </c>
-      <c r="C165" t="s">
-        <v>113</v>
-      </c>
-      <c r="D165" t="s">
-        <v>143</v>
-      </c>
-      <c r="E165" t="s">
-        <v>8</v>
-      </c>
-      <c r="F165" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>20330051920144</v>
-      </c>
-      <c r="B166" t="s">
-        <v>88</v>
-      </c>
-      <c r="C166" t="s">
-        <v>113</v>
-      </c>
-      <c r="D166" t="s">
-        <v>143</v>
-      </c>
-      <c r="E166" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>20330051920144</v>
-      </c>
-      <c r="B167" t="s">
-        <v>88</v>
-      </c>
-      <c r="C167" t="s">
-        <v>113</v>
-      </c>
-      <c r="D167" t="s">
-        <v>143</v>
-      </c>
-      <c r="E167" t="s">
-        <v>5</v>
-      </c>
-      <c r="F167" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>20330051920144</v>
-      </c>
-      <c r="B168" t="s">
-        <v>88</v>
-      </c>
-      <c r="C168" t="s">
-        <v>113</v>
-      </c>
-      <c r="D168" t="s">
-        <v>143</v>
-      </c>
-      <c r="E168" t="s">
-        <v>6</v>
-      </c>
-      <c r="F168" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>20330051920144</v>
-      </c>
-      <c r="B169" t="s">
-        <v>88</v>
-      </c>
-      <c r="C169" t="s">
-        <v>113</v>
-      </c>
-      <c r="D169" t="s">
-        <v>143</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>20330051920387</v>
-      </c>
-      <c r="B170" t="s">
-        <v>89</v>
-      </c>
-      <c r="C170" t="s">
-        <v>114</v>
-      </c>
-      <c r="D170" t="s">
-        <v>121</v>
-      </c>
-      <c r="E170" t="s">
-        <v>7</v>
-      </c>
-      <c r="F170" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>20330051920387</v>
-      </c>
-      <c r="B171" t="s">
-        <v>89</v>
-      </c>
-      <c r="C171" t="s">
-        <v>114</v>
-      </c>
-      <c r="D171" t="s">
-        <v>121</v>
-      </c>
-      <c r="E171" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>20330051920387</v>
-      </c>
-      <c r="B172" t="s">
-        <v>89</v>
-      </c>
-      <c r="C172" t="s">
-        <v>114</v>
-      </c>
-      <c r="D172" t="s">
-        <v>121</v>
-      </c>
-      <c r="E172" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>20330051920387</v>
-      </c>
-      <c r="B173" t="s">
-        <v>89</v>
-      </c>
-      <c r="C173" t="s">
-        <v>114</v>
-      </c>
-      <c r="D173" t="s">
-        <v>121</v>
-      </c>
-      <c r="E173" t="s">
-        <v>5</v>
-      </c>
-      <c r="F173" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>20330051920387</v>
-      </c>
-      <c r="B174" t="s">
-        <v>89</v>
-      </c>
-      <c r="C174" t="s">
-        <v>114</v>
-      </c>
-      <c r="D174" t="s">
-        <v>121</v>
-      </c>
-      <c r="E174" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>20330051920387</v>
-      </c>
-      <c r="B175" t="s">
-        <v>89</v>
-      </c>
-      <c r="C175" t="s">
-        <v>114</v>
-      </c>
-      <c r="D175" t="s">
-        <v>121</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>20330051920145</v>
-      </c>
-      <c r="B176" t="s">
-        <v>90</v>
-      </c>
-      <c r="C176" t="s">
-        <v>76</v>
-      </c>
-      <c r="D176" t="s">
-        <v>144</v>
-      </c>
-      <c r="E176" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>20330051920145</v>
-      </c>
-      <c r="B177" t="s">
-        <v>90</v>
-      </c>
-      <c r="C177" t="s">
-        <v>76</v>
-      </c>
-      <c r="D177" t="s">
-        <v>144</v>
-      </c>
-      <c r="E177" t="s">
-        <v>8</v>
-      </c>
-      <c r="F177" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>20330051920145</v>
-      </c>
-      <c r="B178" t="s">
-        <v>90</v>
-      </c>
-      <c r="C178" t="s">
-        <v>76</v>
-      </c>
-      <c r="D178" t="s">
-        <v>144</v>
-      </c>
-      <c r="E178" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>20330051920145</v>
-      </c>
-      <c r="B179" t="s">
-        <v>90</v>
-      </c>
-      <c r="C179" t="s">
-        <v>76</v>
-      </c>
-      <c r="D179" t="s">
-        <v>144</v>
-      </c>
-      <c r="E179" t="s">
-        <v>5</v>
-      </c>
-      <c r="F179" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>20330051920145</v>
-      </c>
-      <c r="B180" t="s">
-        <v>90</v>
-      </c>
-      <c r="C180" t="s">
-        <v>76</v>
-      </c>
-      <c r="D180" t="s">
-        <v>144</v>
-      </c>
-      <c r="E180" t="s">
-        <v>6</v>
-      </c>
-      <c r="F180" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>20330051920145</v>
-      </c>
-      <c r="B181" t="s">
-        <v>90</v>
-      </c>
-      <c r="C181" t="s">
-        <v>76</v>
-      </c>
-      <c r="D181" t="s">
-        <v>144</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>20330051920148</v>
-      </c>
-      <c r="B182" t="s">
-        <v>91</v>
-      </c>
-      <c r="C182" t="s">
-        <v>115</v>
-      </c>
-      <c r="D182" t="s">
-        <v>145</v>
-      </c>
-      <c r="E182" t="s">
-        <v>7</v>
-      </c>
-      <c r="F182" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>20330051920148</v>
-      </c>
-      <c r="B183" t="s">
-        <v>91</v>
-      </c>
-      <c r="C183" t="s">
-        <v>115</v>
-      </c>
-      <c r="D183" t="s">
-        <v>145</v>
-      </c>
-      <c r="E183" t="s">
-        <v>8</v>
-      </c>
-      <c r="F183" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>20330051920148</v>
-      </c>
-      <c r="B184" t="s">
-        <v>91</v>
-      </c>
-      <c r="C184" t="s">
-        <v>115</v>
-      </c>
-      <c r="D184" t="s">
-        <v>145</v>
-      </c>
-      <c r="E184" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>20330051920148</v>
-      </c>
-      <c r="B185" t="s">
-        <v>91</v>
-      </c>
-      <c r="C185" t="s">
-        <v>115</v>
-      </c>
-      <c r="D185" t="s">
-        <v>145</v>
-      </c>
-      <c r="E185" t="s">
-        <v>5</v>
-      </c>
-      <c r="F185" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>20330051920148</v>
-      </c>
-      <c r="B186" t="s">
-        <v>91</v>
-      </c>
-      <c r="C186" t="s">
-        <v>115</v>
-      </c>
-      <c r="D186" t="s">
-        <v>145</v>
-      </c>
-      <c r="E186" t="s">
-        <v>6</v>
-      </c>
-      <c r="F186" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>20330051920148</v>
-      </c>
-      <c r="B187" t="s">
-        <v>91</v>
-      </c>
-      <c r="C187" t="s">
-        <v>115</v>
-      </c>
-      <c r="D187" t="s">
-        <v>145</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>20330051920150</v>
-      </c>
-      <c r="B188" t="s">
-        <v>92</v>
-      </c>
-      <c r="C188" t="s">
-        <v>116</v>
-      </c>
-      <c r="D188" t="s">
-        <v>146</v>
-      </c>
-      <c r="E188" t="s">
-        <v>7</v>
-      </c>
-      <c r="F188" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>20330051920150</v>
-      </c>
-      <c r="B189" t="s">
-        <v>92</v>
-      </c>
-      <c r="C189" t="s">
-        <v>116</v>
-      </c>
-      <c r="D189" t="s">
-        <v>146</v>
-      </c>
-      <c r="E189" t="s">
-        <v>8</v>
-      </c>
-      <c r="F189" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>20330051920150</v>
-      </c>
-      <c r="B190" t="s">
-        <v>92</v>
-      </c>
-      <c r="C190" t="s">
-        <v>116</v>
-      </c>
-      <c r="D190" t="s">
-        <v>146</v>
-      </c>
-      <c r="E190" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>20330051920150</v>
-      </c>
-      <c r="B191" t="s">
-        <v>92</v>
-      </c>
-      <c r="C191" t="s">
-        <v>116</v>
-      </c>
-      <c r="D191" t="s">
-        <v>146</v>
-      </c>
-      <c r="E191" t="s">
-        <v>5</v>
-      </c>
-      <c r="F191" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>20330051920150</v>
-      </c>
-      <c r="B192" t="s">
-        <v>92</v>
-      </c>
-      <c r="C192" t="s">
-        <v>116</v>
-      </c>
-      <c r="D192" t="s">
-        <v>146</v>
-      </c>
-      <c r="E192" t="s">
-        <v>6</v>
-      </c>
-      <c r="F192" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>20330051920150</v>
-      </c>
-      <c r="B193" t="s">
-        <v>92</v>
-      </c>
-      <c r="C193" t="s">
-        <v>116</v>
-      </c>
-      <c r="D193" t="s">
-        <v>146</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
-      <c r="A194">
-        <v>20330051920151</v>
-      </c>
-      <c r="B194" t="s">
-        <v>93</v>
-      </c>
-      <c r="C194" t="s">
-        <v>117</v>
-      </c>
-      <c r="D194" t="s">
-        <v>147</v>
-      </c>
-      <c r="E194" t="s">
-        <v>7</v>
-      </c>
-      <c r="F194" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
-      <c r="A195">
-        <v>20330051920151</v>
-      </c>
-      <c r="B195" t="s">
-        <v>93</v>
-      </c>
-      <c r="C195" t="s">
-        <v>117</v>
-      </c>
-      <c r="D195" t="s">
-        <v>147</v>
-      </c>
-      <c r="E195" t="s">
-        <v>8</v>
-      </c>
-      <c r="F195" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
-      <c r="A196">
-        <v>20330051920151</v>
-      </c>
-      <c r="B196" t="s">
-        <v>93</v>
-      </c>
-      <c r="C196" t="s">
-        <v>117</v>
-      </c>
-      <c r="D196" t="s">
-        <v>147</v>
-      </c>
-      <c r="E196" t="s">
-        <v>10</v>
-      </c>
-      <c r="F196" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
-      <c r="A197">
-        <v>20330051920151</v>
-      </c>
-      <c r="B197" t="s">
-        <v>93</v>
-      </c>
-      <c r="C197" t="s">
-        <v>117</v>
-      </c>
-      <c r="D197" t="s">
-        <v>147</v>
-      </c>
-      <c r="E197" t="s">
-        <v>5</v>
-      </c>
-      <c r="F197" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
-      <c r="A198">
-        <v>20330051920151</v>
-      </c>
-      <c r="B198" t="s">
-        <v>93</v>
-      </c>
-      <c r="C198" t="s">
-        <v>117</v>
-      </c>
-      <c r="D198" t="s">
-        <v>147</v>
-      </c>
-      <c r="E198" t="s">
-        <v>6</v>
-      </c>
-      <c r="F198" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
-      <c r="A199">
-        <v>20330051920151</v>
-      </c>
-      <c r="B199" t="s">
-        <v>93</v>
-      </c>
-      <c r="C199" t="s">
-        <v>117</v>
-      </c>
-      <c r="D199" t="s">
-        <v>147</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-      <c r="F199" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
-      <c r="A200">
-        <v>20330051920153</v>
-      </c>
-      <c r="B200" t="s">
-        <v>94</v>
-      </c>
-      <c r="D200" t="s">
-        <v>148</v>
-      </c>
-      <c r="E200" t="s">
-        <v>7</v>
-      </c>
-      <c r="F200" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
-      <c r="A201">
-        <v>20330051920153</v>
-      </c>
-      <c r="B201" t="s">
-        <v>94</v>
-      </c>
-      <c r="D201" t="s">
-        <v>148</v>
-      </c>
-      <c r="E201" t="s">
-        <v>8</v>
-      </c>
-      <c r="F201" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
-      <c r="A202">
-        <v>20330051920153</v>
-      </c>
-      <c r="B202" t="s">
-        <v>94</v>
-      </c>
-      <c r="D202" t="s">
-        <v>148</v>
-      </c>
-      <c r="E202" t="s">
-        <v>10</v>
-      </c>
-      <c r="F202" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
-      <c r="A203">
-        <v>20330051920153</v>
-      </c>
-      <c r="B203" t="s">
-        <v>94</v>
-      </c>
-      <c r="D203" t="s">
-        <v>148</v>
-      </c>
-      <c r="E203" t="s">
-        <v>5</v>
-      </c>
-      <c r="F203" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
-      <c r="A204">
-        <v>20330051920153</v>
-      </c>
-      <c r="B204" t="s">
-        <v>94</v>
-      </c>
-      <c r="D204" t="s">
-        <v>148</v>
-      </c>
-      <c r="E204" t="s">
-        <v>6</v>
-      </c>
-      <c r="F204" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
-      <c r="A205">
-        <v>20330051920153</v>
-      </c>
-      <c r="B205" t="s">
-        <v>94</v>
-      </c>
-      <c r="D205" t="s">
-        <v>148</v>
-      </c>
-      <c r="E205" t="s">
-        <v>9</v>
-      </c>
-      <c r="F205" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
-      <c r="A206">
-        <v>20330051920154</v>
-      </c>
-      <c r="B206" t="s">
-        <v>95</v>
-      </c>
-      <c r="C206" t="s">
-        <v>66</v>
-      </c>
-      <c r="D206" t="s">
-        <v>149</v>
-      </c>
-      <c r="E206" t="s">
-        <v>7</v>
-      </c>
-      <c r="F206" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
-      <c r="A207">
-        <v>20330051920154</v>
-      </c>
-      <c r="B207" t="s">
-        <v>95</v>
-      </c>
-      <c r="C207" t="s">
-        <v>66</v>
-      </c>
-      <c r="D207" t="s">
-        <v>149</v>
-      </c>
-      <c r="E207" t="s">
-        <v>8</v>
-      </c>
-      <c r="F207" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
-      <c r="A208">
-        <v>20330051920154</v>
-      </c>
-      <c r="B208" t="s">
-        <v>95</v>
-      </c>
-      <c r="C208" t="s">
-        <v>66</v>
-      </c>
-      <c r="D208" t="s">
-        <v>149</v>
-      </c>
-      <c r="E208" t="s">
-        <v>10</v>
-      </c>
-      <c r="F208" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
-      <c r="A209">
-        <v>20330051920154</v>
-      </c>
-      <c r="B209" t="s">
-        <v>95</v>
-      </c>
-      <c r="C209" t="s">
-        <v>66</v>
-      </c>
-      <c r="D209" t="s">
-        <v>149</v>
-      </c>
-      <c r="E209" t="s">
-        <v>5</v>
-      </c>
-      <c r="F209" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
-      <c r="A210">
-        <v>20330051920154</v>
-      </c>
-      <c r="B210" t="s">
-        <v>95</v>
-      </c>
-      <c r="C210" t="s">
-        <v>66</v>
-      </c>
-      <c r="D210" t="s">
-        <v>149</v>
-      </c>
-      <c r="E210" t="s">
-        <v>6</v>
-      </c>
-      <c r="F210" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
-      <c r="A211">
-        <v>20330051920154</v>
-      </c>
-      <c r="B211" t="s">
-        <v>95</v>
-      </c>
-      <c r="C211" t="s">
-        <v>66</v>
-      </c>
-      <c r="D211" t="s">
-        <v>149</v>
-      </c>
-      <c r="E211" t="s">
-        <v>9</v>
-      </c>
-      <c r="F211" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -8070,577 +4365,577 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920115</v>
+        <v>20330051920122</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920116</v>
+        <v>20330051920148</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920118</v>
+        <v>20330051920126</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920119</v>
+        <v>20330051920135</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920121</v>
+        <v>20330051920136</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920122</v>
+        <v>20330051920141</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920123</v>
+        <v>20330051920144</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920124</v>
+        <v>20330051920387</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920125</v>
+        <v>20330051920151</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920126</v>
+        <v>20330051920119</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920127</v>
+        <v>20330051920123</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920128</v>
+        <v>20330051920129</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920129</v>
+        <v>20330051920153</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920131</v>
+        <v>20330051920115</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920132</v>
+        <v>20330051920116</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920133</v>
+        <v>20330051920118</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920134</v>
+        <v>20330051920121</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920135</v>
+        <v>20330051920124</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920136</v>
+        <v>20330051920125</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920137</v>
+        <v>20330051920127</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920139</v>
+        <v>20330051920128</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920387</v>
+        <v>20330051920131</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920140</v>
+        <v>20330051920132</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920141</v>
+        <v>20330051920133</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D25" t="s">
         <v>139</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920389</v>
+        <v>20330051920134</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D26" t="s">
         <v>140</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920142</v>
+        <v>20330051920137</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="D27" t="s">
         <v>141</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920143</v>
+        <v>20330051920139</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D28" t="s">
         <v>142</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920144</v>
+        <v>19330051920387</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
         <v>143</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920387</v>
+        <v>20330051920140</v>
       </c>
       <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
         <v>89</v>
       </c>
-      <c r="C30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920145</v>
+        <v>20330051920389</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D31" t="s">
         <v>144</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920148</v>
+        <v>20330051920142</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D32" t="s">
         <v>145</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920150</v>
+        <v>20330051920143</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="D33" t="s">
         <v>146</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20330051920151</v>
+        <v>20330051920145</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D34" t="s">
         <v>147</v>
       </c>
       <c r="E34">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20330051920153</v>
+        <v>20330051920150</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>114</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
       </c>
       <c r="D35" t="s">
         <v>148</v>
       </c>
       <c r="E35">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -8648,16 +4943,16 @@
         <v>20330051920154</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="D36" t="s">
         <v>149</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8667,7 +4962,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8705,13 +5000,13 @@
         <v>20330051920136</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -8728,13 +5023,13 @@
         <v>20330051920136</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -8751,13 +5046,13 @@
         <v>20330051920151</v>
       </c>
       <c r="B4" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -8774,13 +5069,13 @@
         <v>20330051920151</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -8797,19 +5092,19 @@
         <v>20330051920119</v>
       </c>
       <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="C6" t="s">
-        <v>73</v>
-      </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -8817,22 +5112,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920121</v>
+        <v>20330051920123</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -8840,16 +5135,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920123</v>
+        <v>20330051920129</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -8863,39 +5158,36 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920128</v>
+        <v>20330051920134</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="D9" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920129</v>
+        <v>20330051920153</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -8904,72 +5196,6 @@
         <v>55</v>
       </c>
       <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920132</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920134</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" t="s">
-        <v>134</v>
-      </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920153</v>
-      </c>
-      <c r="B13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E13" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/3ARHV - Estadisticos 20211.xlsx
+++ b/grupos/3ARHV - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="150">
   <si>
     <t>Materia</t>
   </si>
@@ -215,118 +215,118 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>MARCIAL</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>DE LA ROSA</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MACHORRO</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>RAMON</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>JAVIER</t>
+  </si>
+  <si>
+    <t>EMELIN JIROMI</t>
+  </si>
+  <si>
+    <t>ESMERALDA</t>
+  </si>
+  <si>
+    <t>YAZMIN</t>
+  </si>
+  <si>
+    <t>IVAN DE JESUS</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ALONDRA</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>MEILYN ADABEL</t>
+  </si>
+  <si>
+    <t>CONSTANZA XIMENA</t>
+  </si>
+  <si>
+    <t>KIMBERLY</t>
+  </si>
+  <si>
+    <t>CASTELLANOS</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>CONGUILLO</t>
+  </si>
+  <si>
     <t>CORONA</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>JIMENEZ</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>MARCIAL</t>
-  </si>
-  <si>
-    <t>OSORIO</t>
-  </si>
-  <si>
-    <t>DE LA ROSA</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>CERVANTES</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>APARICIO</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MACHORRO</t>
-  </si>
-  <si>
-    <t>CASTRO</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>RAMON</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>MARIA FERNANDA</t>
-  </si>
-  <si>
-    <t>JAVIER</t>
-  </si>
-  <si>
-    <t>EMELIN JIROMI</t>
-  </si>
-  <si>
-    <t>ESMERALDA</t>
-  </si>
-  <si>
-    <t>YAZMIN</t>
-  </si>
-  <si>
-    <t>IVAN DE JESUS</t>
-  </si>
-  <si>
-    <t>KARLA</t>
-  </si>
-  <si>
-    <t>ALONDRA</t>
-  </si>
-  <si>
-    <t>MEILYN ADABEL</t>
-  </si>
-  <si>
-    <t>CONSTANZA XIMENA</t>
-  </si>
-  <si>
-    <t>KIMBERLY</t>
-  </si>
-  <si>
-    <t>CASTELLANOS</t>
-  </si>
-  <si>
-    <t>CARRERA</t>
-  </si>
-  <si>
-    <t>CONGUILLO</t>
   </si>
   <si>
     <t>CUATRA</t>
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>9</v>
@@ -1247,7 +1247,7 @@
         <v>10</v>
       </c>
       <c r="V7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W7">
         <v>9</v>
@@ -2810,7 +2810,7 @@
         <v>10</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>5</v>
@@ -2864,7 +2864,7 @@
         <v>10</v>
       </c>
       <c r="V28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="W28">
         <v>5</v>
@@ -3118,7 +3118,7 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>5</v>
@@ -3172,7 +3172,7 @@
         <v>10</v>
       </c>
       <c r="V32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="W32">
         <v>5</v>
@@ -3794,25 +3794,25 @@
         <v>35</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>85.70999999999999</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5.71</v>
       </c>
       <c r="H7">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7">
-        <v>14.29</v>
+        <v>5.71</v>
       </c>
     </row>
   </sheetData>
@@ -3822,7 +3822,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3854,16 +3854,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>20330051920119</v>
+        <v>20330051920122</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -3877,19 +3877,19 @@
         <v>20330051920122</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3897,24 +3897,24 @@
         <v>20330051920122</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920122</v>
+        <v>20330051920123</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -3923,7 +3923,7 @@
         <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920123</v>
+        <v>20330051920126</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -3943,13 +3943,13 @@
         <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3957,24 +3957,24 @@
         <v>20330051920126</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920126</v>
+        <v>20330051920129</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -3983,7 +3983,7 @@
         <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -3994,7 +3994,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920129</v>
+        <v>20330051920135</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -4003,13 +4003,13 @@
         <v>81</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4017,24 +4017,24 @@
         <v>20330051920135</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920135</v>
+        <v>20330051920136</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -4046,10 +4046,10 @@
         <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4057,24 +4057,24 @@
         <v>20330051920136</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920136</v>
+        <v>20330051920141</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -4083,18 +4083,18 @@
         <v>83</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920141</v>
+        <v>20330051920144</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -4103,18 +4103,18 @@
         <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920141</v>
+        <v>20330051920144</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -4123,18 +4123,18 @@
         <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920144</v>
+        <v>20330051920387</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -4143,7 +4143,7 @@
         <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -4154,27 +4154,27 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920144</v>
+        <v>20330051920148</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
         <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920387</v>
+        <v>20330051920148</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -4183,18 +4183,18 @@
         <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920387</v>
+        <v>20330051920148</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -4203,18 +4203,18 @@
         <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920148</v>
+        <v>20330051920151</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -4226,15 +4226,15 @@
         <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920148</v>
+        <v>20330051920151</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -4246,86 +4246,26 @@
         <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920148</v>
+        <v>20330051920153</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>20330051920151</v>
-      </c>
-      <c r="B23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>20330051920151</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
-        <v>98</v>
-      </c>
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-      <c r="F24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>20330051920153</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F25" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4368,13 +4308,13 @@
         <v>20330051920122</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -4385,13 +4325,13 @@
         <v>20330051920148</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -4402,13 +4342,13 @@
         <v>20330051920126</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -4419,13 +4359,13 @@
         <v>20330051920135</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -4436,13 +4376,13 @@
         <v>20330051920136</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -4450,7 +4390,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920141</v>
+        <v>20330051920144</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -4459,7 +4399,7 @@
         <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -4467,16 +4407,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920144</v>
+        <v>20330051920151</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -4484,50 +4424,50 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920387</v>
+        <v>20330051920123</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>89</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920151</v>
+        <v>20330051920129</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920119</v>
+        <v>20330051920141</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -4535,16 +4475,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920123</v>
+        <v>20330051920387</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -4552,16 +4492,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920129</v>
+        <v>20330051920153</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -4569,30 +4506,33 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920153</v>
+        <v>20330051920115</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920115</v>
+        <v>20330051920116</v>
       </c>
       <c r="B15" t="s">
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -4600,16 +4540,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920116</v>
+        <v>20330051920118</v>
       </c>
       <c r="B16" t="s">
         <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -4617,16 +4557,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920118</v>
+        <v>20330051920119</v>
       </c>
       <c r="B17" t="s">
         <v>102</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -4654,7 +4594,7 @@
         <v>20330051920124</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>118</v>
@@ -4671,10 +4611,10 @@
         <v>20330051920125</v>
       </c>
       <c r="B20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D20" t="s">
         <v>134</v>
@@ -4688,10 +4628,10 @@
         <v>20330051920127</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
         <v>135</v>
@@ -4705,7 +4645,7 @@
         <v>20330051920128</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
         <v>119</v>
@@ -4807,7 +4747,7 @@
         <v>20330051920139</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
         <v>125</v>
@@ -4827,7 +4767,7 @@
         <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" t="s">
         <v>143</v>
@@ -4844,10 +4784,10 @@
         <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -4946,7 +4886,7 @@
         <v>115</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
         <v>149</v>
@@ -5000,13 +4940,13 @@
         <v>20330051920136</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -5023,13 +4963,13 @@
         <v>20330051920136</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -5046,13 +4986,13 @@
         <v>20330051920151</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -5069,13 +5009,13 @@
         <v>20330051920151</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -5092,13 +5032,13 @@
         <v>20330051920119</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -5107,7 +5047,7 @@
         <v>60</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5115,13 +5055,13 @@
         <v>20330051920123</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -5138,13 +5078,13 @@
         <v>20330051920129</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -5184,10 +5124,10 @@
         <v>20330051920153</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
